--- a/src/templates/template.xlsx
+++ b/src/templates/template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">注意事项：
 1. 多个password使用“/”分割
@@ -53,6 +53,27 @@
   </si>
   <si>
     <t>device_id</t>
+  </si>
+  <si>
+    <t>3楼通道</t>
+  </si>
+  <si>
+    <t>192.168.41.131</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Kindlink/fakePwd</t>
+  </si>
+  <si>
+    <t>demo楼</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>foo</t>
   </si>
 </sst>
 </file>
@@ -746,11 +767,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1280,7 +1301,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1329,112 +1350,130 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="6"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="6"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="10"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/templates/template.xlsx
+++ b/src/templates/template.xlsx
@@ -37,7 +37,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>ip</t>
+    <t>host</t>
   </si>
   <si>
     <t>username</t>
@@ -1301,7 +1301,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
